--- a/CPSC362_PBL_041122.xlsx
+++ b/CPSC362_PBL_041122.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddie/Documents/Fullerton/Spring22/CPSC 362/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD73A1F-EE38-8347-8F46-02DB628F12E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B84B1-48BE-6F4D-B7C9-B18A9D97F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="37520" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Product Backlog'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -632,6 +631,15 @@
   </si>
   <si>
     <t>U06/U23/U24</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>Retrieve all uploaded items from firebase and display on homepage</t>
+  </si>
+  <si>
+    <t>retrieve all items that are stored in database and display on homepage, all items should be formatted properly</t>
   </si>
 </sst>
 </file>
@@ -1047,23 +1055,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1266,22 +1258,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1318,9 +1294,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tasks" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1335,27 +1311,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="List" displayName="List" ref="A1:O30" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="List" displayName="List" ref="A1:O30" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O30" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="16" dataCellStyle="Date"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description " dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{B7549689-32CF-224D-8D6A-9DE9D144ECCF}" name="Rank" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{C0345069-91E7-8848-A074-F30C84CA476D}" name="Associated with Feature/Task/Story " dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{41D0BC5F-5BCE-7E47-81AA-20D17871B7A7}" name="Notes: " dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{A3C76956-9869-3C49-92E5-E73D28B6A5D1}" name="Planned Iteration " dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{117EB2A0-BE64-E246-A885-186A2701FDC0}" name="Estimated 'Value' " dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{4B60A5D1-4129-364A-8A91-9BD0B1CA75E3}" name="To Do/Planned" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{D2DE4B1E-B672-0348-862A-E0C3BF5EB9C2}" name="On Deck " dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{01D65FA6-1DDA-6741-9A83-AB63DAB2AF6C}" name="Development" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{50E56749-A6A7-EC42-B797-D8807A214254}" name="Testing" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{F23A66E2-AF3B-AD4B-B844-6BFF6FFB1CC8}" name="Complete" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{E5E2241D-A28B-014E-A065-184616373934}" name="Not Delivered/Late" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{6F5AE551-8047-F249-ABF0-675687501AE3}" name="Still in PBL" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{8D57799F-8729-6B4D-82B5-CFE83B08BC3E}" name="Acceptance Critera" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="14" dataCellStyle="Date"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description " dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{B7549689-32CF-224D-8D6A-9DE9D144ECCF}" name="Rank" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C0345069-91E7-8848-A074-F30C84CA476D}" name="Associated with Feature/Task/Story " dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{41D0BC5F-5BCE-7E47-81AA-20D17871B7A7}" name="Notes: " dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{A3C76956-9869-3C49-92E5-E73D28B6A5D1}" name="Planned Iteration " dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{117EB2A0-BE64-E246-A885-186A2701FDC0}" name="Estimated 'Value' " dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{4B60A5D1-4129-364A-8A91-9BD0B1CA75E3}" name="To Do/Planned" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{D2DE4B1E-B672-0348-862A-E0C3BF5EB9C2}" name="On Deck " dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{01D65FA6-1DDA-6741-9A83-AB63DAB2AF6C}" name="Development" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{50E56749-A6A7-EC42-B797-D8807A214254}" name="Testing" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{F23A66E2-AF3B-AD4B-B844-6BFF6FFB1CC8}" name="Complete" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{E5E2241D-A28B-014E-A065-184616373934}" name="Not Delivered/Late" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{6F5AE551-8047-F249-ABF0-675687501AE3}" name="Still in PBL" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8D57799F-8729-6B4D-82B5-CFE83B08BC3E}" name="Acceptance Critera" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Tasks" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2478,11 +2454,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF6167E-3672-5E4D-89FB-DEE5E72EBDD4}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2538,7 +2514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>128</v>
       </c>
@@ -2560,7 +2536,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="46" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>131</v>
       </c>
@@ -2626,7 +2602,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>147</v>
       </c>
@@ -2648,7 +2624,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
         <v>152</v>
       </c>
@@ -2714,7 +2690,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
         <v>162</v>
       </c>
@@ -2780,26 +2756,26 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A14" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="65">
-        <v>1</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="62" t="s">
-        <v>181</v>
+      <c r="B14" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="39" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -2807,7 +2783,7 @@
         <v>182</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="65">
         <v>1</v>
@@ -2829,7 +2805,7 @@
         <v>183</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="65">
         <v>1</v>
@@ -2851,7 +2827,7 @@
         <v>184</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="65">
         <v>1</v>
@@ -2873,7 +2849,7 @@
         <v>185</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="65">
         <v>1</v>
@@ -2895,7 +2871,7 @@
         <v>186</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C19" s="65">
         <v>1</v>
@@ -2909,7 +2885,7 @@
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="62" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -2917,7 +2893,7 @@
         <v>192</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="65">
         <v>1</v>
@@ -2939,7 +2915,7 @@
         <v>193</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="65">
         <v>1</v>
@@ -2956,12 +2932,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.15">
       <c r="A22" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="65">
         <v>1</v>
@@ -2983,7 +2959,7 @@
         <v>195</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="65">
         <v>1</v>
@@ -2997,6 +2973,28 @@
       </c>
       <c r="G23" s="66"/>
       <c r="H23" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A24" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="65">
+        <v>1</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="66"/>
+      <c r="H24" s="62" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3431,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="31" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="46" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>53</v>
       </c>
